--- a/data/ANVEMPUBLISHINGT4-2024.xlsx
+++ b/data/ANVEMPUBLISHINGT4-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I106"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -586,8 +589,6 @@
       <c r="F11" s="11" t="n">
         <v>257.6518203</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
@@ -2287,6 +2288,7 @@
         <v>0.00278372</v>
       </c>
     </row>
+    <row r="105"/>
     <row r="106">
       <c r="D106" s="6" t="inlineStr">
         <is>
@@ -2312,7 +2314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2325,6 +2327,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -2332,6 +2336,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -2442,7 +2447,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="inlineStr"/>
       <c r="D14" s="10" t="n">
         <v>76194</v>
       </c>
@@ -2762,6 +2766,7 @@
         <v>0.00046665</v>
       </c>
     </row>
+    <row r="39"/>
     <row r="40">
       <c r="C40" s="6" t="inlineStr">
         <is>
@@ -2787,7 +2792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2800,6 +2805,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -2807,6 +2814,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -3358,6 +3366,7 @@
         <v>9.93e-05</v>
       </c>
     </row>
+    <row r="48"/>
     <row r="49">
       <c r="C49" s="6" t="inlineStr">
         <is>
